--- a/uploads/exp.xlsx
+++ b/uploads/exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI CROSSHAIR 15\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAFDA6-9B99-4ACA-A532-3827C66F0918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DA6274-C8C6-438D-9387-1A2BF4A7BD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{78E9377F-D429-4D2A-8181-0278BA0DB0B7}"/>
+    <workbookView xWindow="25965" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{78E9377F-D429-4D2A-8181-0278BA0DB0B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>orientation</t>
   </si>
@@ -57,16 +54,37 @@
     <t>rap</t>
   </si>
   <si>
-    <t>connaitre quelqes exemples d'homophones</t>
-  </si>
-  <si>
-    <t>apprendre des formules relatives au fonctions</t>
-  </si>
-  <si>
-    <t>popp</t>
-  </si>
-  <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>les couleurs</t>
+  </si>
+  <si>
+    <t>connaitre couleurs pour un niveau A1</t>
+  </si>
+  <si>
+    <t>météo et climat</t>
+  </si>
+  <si>
+    <t>connaitre météo pour un niveau A1</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>les animaux</t>
+  </si>
+  <si>
+    <t>apprendre plus sur les animaux pour un niveau A2</t>
+  </si>
+  <si>
+    <t>la préhistoire</t>
+  </si>
+  <si>
+    <t>apprendre plus sur les la préhistoire pour un niveau A2</t>
   </si>
 </sst>
 </file>
@@ -122,10 +140,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{009AD8BF-8A33-469A-BD33-A27015886F5A}" name="Tableau1" displayName="Tableau1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{009AD8BF-8A33-469A-BD33-A27015886F5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{009AD8BF-8A33-469A-BD33-A27015886F5A}" name="Tableau1" displayName="Tableau1" ref="A1:I5" totalsRowShown="0">
+  <autoFilter ref="A1:I5" xr:uid="{009AD8BF-8A33-469A-BD33-A27015886F5A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3FF25E6A-6308-4CE7-B5C9-EE28FEAADCBF}" name="id"/>
+    <tableColumn id="1" xr3:uid="{3FF25E6A-6308-4CE7-B5C9-EE28FEAADCBF}" name="theme"/>
     <tableColumn id="2" xr3:uid="{8AFC237C-D003-4799-BD33-D3B95E1E3196}" name="orientation"/>
     <tableColumn id="3" xr3:uid="{B9B6E74F-DADE-4440-9A7B-86FEE0FB2748}" name="min_char"/>
     <tableColumn id="4" xr3:uid="{07930A16-DD91-4E8C-AB72-29A172AE54E3}" name="max_char"/>
@@ -436,15 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3A7E41-5164-4D68-B8F8-D578F06B7C95}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
@@ -452,39 +471,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1500</v>
@@ -496,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -505,15 +524,15 @@
         <v>1500</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1500</v>
@@ -525,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -534,7 +553,65 @@
         <v>1500</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+      <c r="D4">
+        <v>1800</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1500</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+      <c r="D5">
+        <v>1800</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1500</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
